--- a/biology/Zoologie/Araignées_du_Québec/Araignées_du_Québec.xlsx
+++ b/biology/Zoologie/Araignées_du_Québec/Araignées_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Araign%C3%A9es_du_Qu%C3%A9bec</t>
+          <t>Araignées_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe 51 412 espèces d'araignées décrites dans le monde réparties en 135 familles[1]. Au Canada, 1 413 espèces et 43 familles sont connues (Paquin et al. 2010b) et au Québec, la faune comprend 691 espèces réparties dans 34 familles (Paquin &amp; Dupérré, in prep.).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe 51 412 espèces d'araignées décrites dans le monde réparties en 135 familles. Au Canada, 1 413 espèces et 43 familles sont connues (Paquin et al. 2010b) et au Québec, la faune comprend 691 espèces réparties dans 34 familles (Paquin &amp; Dupérré, in prep.).
 La famille la plus diversifiée est celle des Linyphiidae. Bien que désuète et inexacte, la division de la famille en deux sous-familles (Linyphiinae et Erigoninae) est utile pour l'identification des espèces. Toutefois, cette division est peu pratique pour une liste faunistique et n'est pas retenue ici. La plus grande araignée du Québec est Dolomedes tenebrosus (Pisauridae) qui peut atteindre de 26 à 27 mm (Paquin &amp; Dupérré 2003), et les plus petites sont Mysmena quebecana (Mysmenidae) 0,8 mm (Lopardo et al. 2008) et Mermessus entomologicus 0,9 mm (Linyphiidae) (Paquin &amp; Dupérré 2003).
 Il n'y a pas d'araignées dangereuses au Québec. Cheiracanthium mildei (Cheiracanthiidae) a la réputation d'infliger des morsures qui peuvent provoquer des réactions cutanées. Toutefois, les données fiables sur les conséquences de la morsure de cette espèce sont rarissimes en Amérique du Nord (Cushing 2017), bien que ce soit une araignée très commune et synanthropique (Paquin &amp; Dupérré 2003). Elles peuvent mordre, comme toutes les araignées, mais la seule réaction documentée est une faible rougeur qui disparait rapidement (Paquin &amp; Dupérré, in prep). Il n'est pas possible de reconnaître une morsure d'araignée par la plaie et les diagnostics erronés de morsures d'araignées sont courants. Cependant, la découverte en 2019 d'une femelle Latrodectus variolus accompagnée de trois sacs d'œufs vient confirmer l'établissement de l'espèce dans la province déjà suggérée par deux mentions de la grande région de Montréal. Ce genre est bien connu pour leur venin neurotoxique, mais les cas de morsures de L. variolus et la toxicité du venin de cette espèce sont mal documentés à ce jour.
 La première liste des araignées du Québec a été publiée par Bélanger &amp; Hutchinson (1992) et totalisait 548 espèces, compilée en grande partie avec les spécimens de la CNC (Collection Nationale du Canada). Paquin et al. 2001b ont porté le total à 623 espèces et cette liste est la principale référence pour le Guide d'indentification des Araignées du Québec (Paquin &amp; Dupérré 2003), qui inclut aussi plusieurs espèces susceptibles d'être récoltées dans la province (voir aussi Hutchison &amp; Bélanger 1994). Après 2003, plusieurs publications ont fait mention d'espèces nouvellement trouvées ou nouvelles pour la science dans la province (Bolduc et al. 2005, Dupérré &amp; Paquin 2005, 2006, 2007a, 2007b, Lopardo et al. 2008, Paquin et al. 2008c, 2008e). En 2010b, Paquin et al. publient la liste des espèces canadiennes, où les données sont aussi compilées par province et le total est porté à 677 espèces pour le Québec. Depuis, d'autres découvertes ont été effectuées, certaines publiées : Brisson et al. (2013), Brisson &amp; Simard (2013), Hutchinson &amp; Simard (2013), Paquin &amp; Nicolaescu (2018), Wang et al. (2018), Desaulniers et al. (2019), Paquin &amp; Brodeur (2019), et d'autres seront bientôt rapportées dans des publications appropriées. Les espèces connues du Québec sont mentionnées ici à titre informatif, et portent le total à 691.
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Araign%C3%A9es_du_Qu%C3%A9bec</t>
+          <t>Araignées_du_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +533,9 @@
           <t>Liste des Familles, Genres et Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mise à jour en cours : novembre 2019
 Espèces susceptibles d'être récoltées au Québec
